--- a/2025-10-22/22_olbg_fixtures.xlsx
+++ b/2025-10-22/22_olbg_fixtures.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barcelona v Olympiacos</t>
+          <t>Real Madrid v Juventus</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,34 +488,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-21T16:45:00.000Z</t>
+          <t>2025-10-22T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73/79 Win Tips</t>
+          <t>58/62 Win Tips</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.57</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Union Saint Gilloise v Inter Milan</t>
+          <t>Bayern Munich v Club Brugge</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inter Milan</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,34 +525,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-21T19:00:00.000Z</t>
+          <t>2025-10-22T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>47/51 Win Tips</t>
+          <t>56/56 Win Tips</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.22</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FC Copenhagen v Borussia Dortmund</t>
+          <t>Galatasaray v Bodo-Glimt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,34 +562,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-21T19:00:00.000Z</t>
+          <t>2025-10-22T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38/44 Win Tips</t>
+          <t>49/61 Win Tips</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.60</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Villarreal v Man City</t>
+          <t>Chelsea v Ajax</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,71 +599,71 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-21T19:00:00.000Z</t>
+          <t>2025-10-22T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>37/44 Win Tips</t>
+          <t>48/51 Win Tips</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.30</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ipswich v Charlton</t>
+          <t>Atalanta v Slavia Prague</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Champions League</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-21T18:45:00.000Z</t>
+          <t>2025-10-22T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>35/45 Win Tips</t>
+          <t>39/44 Win Tips</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.40</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arsenal v Atletico Madrid</t>
+          <t>Athletic Bilbao v FK Qarabag</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,71 +673,71 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-21T19:00:00.000Z</t>
+          <t>2025-10-22T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>35/47 Win Tips</t>
+          <t>37/65 Win Tips</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen v PSG</t>
+          <t>Sheff Wed v Middlesbrough</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Champions League</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-21T19:00:00.000Z</t>
+          <t>2025-10-22T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31/39 Win Tips</t>
+          <t>29/36 Win Tips</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.73</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portsmouth v Coventry</t>
+          <t>Wrexham v Oxford Utd</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -747,34 +747,34 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-21T18:45:00.000Z</t>
+          <t>2025-10-22T18:45:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24/27 Win Tips</t>
+          <t>21/31 Win Tips</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kairat Almaty v Pafos FC</t>
+          <t>Eintracht Frankfurt v Liverpool</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -784,145 +784,145 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-21T16:45:00.000Z</t>
+          <t>2025-10-22T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22/49 Win Tips</t>
+          <t>21/36 Win Tips</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.61</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Newcastle v Benfica</t>
+          <t>Swansea v QPR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Champions League</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-21T19:00:00.000Z</t>
+          <t>2025-10-22T18:45:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21/35 Win Tips</t>
+          <t>17/29 Win Tips</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VVV v FC Utrecht Reserves</t>
+          <t>Monaco v Tottenham</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>Over 2.50</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Champions League</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-21T18:00:00.000Z</t>
+          <t>2025-10-22T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17/19 Win Tips</t>
+          <t>15/15 Win Tips</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Boston Utd v Morecambe</t>
+          <t>HJK Helsinki v SJK</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Over 2.50</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>England National League</t>
+          <t>Finland Veikkausliiga</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-21T18:45:00.000Z</t>
+          <t>2025-10-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15/19 Win Tips</t>
+          <t>14/14 Win Tips</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PSV v Napoli</t>
+          <t>Sporting v Marseille</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Over 2.50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -932,281 +932,281 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-21T19:00:00.000Z</t>
+          <t>2025-10-22T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14/28 Win Tips</t>
+          <t>14/15 Win Tips</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.65</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bayern Munich v Club Brugge</t>
+          <t>Chelsea v Sunderland</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Champions League</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-22T19:00:00.000Z</t>
+          <t>2025-10-25T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13/13 Win Tips</t>
+          <t>14/18 Win Tips</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Stevenage v Crystal Palace U21</t>
+          <t>Newcastle v Fulham</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>England EFL Trophy</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-21T18:00:00.000Z</t>
+          <t>2025-10-25T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11/16 Win Tips</t>
+          <t>13/15 Win Tips</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.62</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Preston v Birmingham</t>
+          <t>Leeds v West Ham</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-21T18:45:00.000Z</t>
+          <t>2025-10-24T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11/14 Win Tips</t>
+          <t>11/15 Win Tips</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.05</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Millwall v Stoke</t>
+          <t>Arsenal v Crystal Palace</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-21T18:45:00.000Z</t>
+          <t>2025-10-26T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11/21 Win Tips</t>
+          <t>11/13 Win Tips</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>85</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.48</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Swindon v Notts County</t>
+          <t>Watford v West Brom</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Swindon</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>England League Two</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-21T18:45:00.000Z</t>
+          <t>2025-10-22T18:45:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11/18 Win Tips</t>
+          <t>10/21 Win Tips</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.90</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chelsea v Ajax</t>
+          <t>Brentford v Liverpool</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Champions League</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-22T19:00:00.000Z</t>
+          <t>2025-10-25T19:00:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11/12 Win Tips</t>
+          <t>10/15 Win Tips</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.75</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Galatasaray v Bodo-Glimt</t>
+          <t>Bohemians 1905 v Mlada Boleslav</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Champions League</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-22T16:45:00.000Z</t>
+          <t>2025-10-22T16:30:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10/11 Win Tips</t>
+          <t>9/14 Win Tips</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.05</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1233,17 +1233,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4/22 Win Tips</t>
+          <t>4/25 Win Tips</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>5.50</t>
         </is>
       </c>
     </row>
